--- a/result/user_new.xlsx
+++ b/result/user_new.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20220606</t>
+          <t>20220620</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20220606</t>
+          <t>20220620</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20220606</t>
+          <t>20220620</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/result/user_new.xlsx
+++ b/result/user_new.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,57 +501,62 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00000382</t>
+          <t>00003876</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Полякова</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Полина</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Петровна</t>
+          <t>Иванович</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>00102716</t>
+          <t>50005654</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8093</t>
+          <t>50027355</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Операционист</t>
+          <t>Главный специалист</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>00102716</t>
+          <t>50005654</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19680129</t>
+          <t>19771008</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>20220620</t>
         </is>
       </c>
     </row>
@@ -568,32 +573,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00003876</t>
+          <t>00000643</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Иванов</t>
+          <t>Сидоров</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Сидор</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Иванович</t>
+          <t>Сидорович</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>50005654</t>
+          <t>50005681</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>50027355</t>
+          <t>50046109</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -603,7 +608,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>50005654</t>
+          <t>50005681</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -613,19 +618,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19771008</t>
+          <t>19750207</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>20220620</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20220620</t>
+          <t>99991231</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -635,57 +645,62 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00000643</t>
+          <t>00000382</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Сидоров</t>
+          <t>Полякова</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Сидор</t>
+          <t>Полина</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Сидорович</t>
+          <t>Петровна</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>50005681</t>
+          <t>00102716</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>50046109</t>
+          <t>8093</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Главный специалист</t>
+          <t>Операционист</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>50005681</t>
+          <t>00102716</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19750207</t>
+          <t>19680129</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>99991231</t>
         </is>
       </c>
     </row>
